--- a/SLR_Analysis.xlsx
+++ b/SLR_Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianstablum/Desktop/masterthesis-Sim-To-Real-Gap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ABFC0D-31A0-F64B-A692-CB70F30D0949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8F5C7-0470-1A4A-BC25-66E6BE9EA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{A5643940-8010-1240-B275-9465D85E61C8}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="933">
   <si>
     <t>Key</t>
   </si>
@@ -1522,9 +1522,6 @@
     <t>10.1016/j.actaastro.2025.01.017</t>
   </si>
   <si>
-    <t>Approaches</t>
-  </si>
-  <si>
     <t>Domain Randomization</t>
   </si>
   <si>
@@ -2155,9 +2152,6 @@
     <t>Gazebo; PyBullet</t>
   </si>
   <si>
-    <t>Transfer Learning; Domain Adaptation; Model-based Reinforcement Learning</t>
-  </si>
-  <si>
     <t>Domain Mismatch; Physical Modeling Errors; Simulator-Specific Limitations</t>
   </si>
   <si>
@@ -2620,9 +2614,6 @@
     <t>Custom Video Diffusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Imitation Learning; Supervised Learning </t>
-  </si>
-  <si>
     <t>Transfer Learning; Representation Learning</t>
   </si>
   <si>
@@ -2650,9 +2641,6 @@
     <t>Dynamics Mismatch;</t>
   </si>
   <si>
-    <t>System Identification; Hybrid Sim/Real Learning; Model-based Reinforcement Learning</t>
-  </si>
-  <si>
     <t>Physical Modeling Errors; Latency and Delay; Sensor Domain Discrepancies</t>
   </si>
   <si>
@@ -2680,9 +2668,6 @@
     <t>Custom-Sim</t>
   </si>
   <si>
-    <t>Domain Randomization; Transfer Learning; Model-based Reinforcement Learning; Parameter Tuning</t>
-  </si>
-  <si>
     <t>Contact Modeling Issues; Visual Appearance Gap;</t>
   </si>
   <si>
@@ -2693,9 +2678,6 @@
   </si>
   <si>
     <t>Contact Modeling Issues; Noise – Bias - Calibration Issues</t>
-  </si>
-  <si>
-    <t>Hybrid Sim/Real Learning; Domain Randomization; Representation Learning; Model-based Reinforcement Learning</t>
   </si>
   <si>
     <t>Sensor Domain Discrepancies &amp;  High Sample Costs</t>
@@ -2831,9 +2813,6 @@
     <t xml:space="preserve">Convolutional Neural Networks; Generative Adversarial Networks </t>
   </si>
   <si>
-    <t xml:space="preserve">Behavioral Cloning; Convolutional Neural Networks;Generative Adversarial Networks </t>
-  </si>
-  <si>
     <t>Behavioral Cloning; Convolutional Neural Networks; Proximal Policy Optimization</t>
   </si>
   <si>
@@ -2843,10 +2822,34 @@
     <t xml:space="preserve">Deep Q-Network;Generative Adversarial Networks </t>
   </si>
   <si>
-    <t>Deep Q-Network ; Convolutional Neural Networks</t>
-  </si>
-  <si>
     <t>Deep Q-Network</t>
+  </si>
+  <si>
+    <t>Deep Q-Network ; Convolutional Neural Networks; Behavioural Cloning</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning; Supervised Learning; Imitation Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convolutional Neural Networks;Generative Adversarial Networks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised Learning;  Supervised Learning </t>
+  </si>
+  <si>
+    <t>Transfer Learning; Domain Adaptation; Model-Free Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>System Identification; Hybrid Sim/Real Learning; Model-Free Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Domain Randomization; Transfer Learning; Model-Free Reinforcement Learning; Parameter Tuning</t>
+  </si>
+  <si>
+    <t>Hybrid Sim/Real Learning; Domain Randomization; Representation Learning; Model-Free Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>Bridging Strategy</t>
   </si>
 </sst>
 </file>
@@ -3153,6 +3156,14 @@
         <filter val="Yes"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="Domain Randomization; Transfer Learning; Model-based Reinforcement Learning; Parameter Tuning"/>
+        <filter val="Hybrid Sim/Real Learning; Domain Randomization; Representation Learning; Model-based Reinforcement Learning"/>
+        <filter val="System Identification; Hybrid Sim/Real Learning; Model-based Reinforcement Learning"/>
+        <filter val="Transfer Learning; Domain Adaptation; Model-based Reinforcement Learning"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{B8F3AD7C-896E-6A48-9F37-4C380932CB4A}" uniqueName="1" name="Key" queryTableFieldId="1" dataDxfId="18"/>
@@ -3174,7 +3185,7 @@
     <tableColumn id="101" xr3:uid="{EC79F954-1D9F-9849-A721-ABA9B594BE27}" uniqueName="101" name="Simulator - Subconcept" queryTableFieldId="102" dataDxfId="4"/>
     <tableColumn id="95" xr3:uid="{41528007-0F6C-4541-9D5E-0DB7558EF158}" uniqueName="95" name="Learning Algorithm" queryTableFieldId="96" dataDxfId="3"/>
     <tableColumn id="102" xr3:uid="{D27A8608-82D6-3948-9E2E-B258645F4BA0}" uniqueName="102" name="Learning Algorithm - Concept" queryTableFieldId="103" dataDxfId="2"/>
-    <tableColumn id="96" xr3:uid="{1CAB3C99-A84A-8544-BBBE-A909E6E60955}" uniqueName="96" name="Approaches" queryTableFieldId="97" dataDxfId="1"/>
+    <tableColumn id="96" xr3:uid="{1CAB3C99-A84A-8544-BBBE-A909E6E60955}" uniqueName="96" name="Bridging Strategy" queryTableFieldId="97" dataDxfId="1"/>
     <tableColumn id="97" xr3:uid="{5AB1B72F-D4FC-1B4C-A896-55CC8FC6BF3B}" uniqueName="97" name="Use Case" queryTableFieldId="98" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3501,9 +3512,9 @@
   <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3546,52 +3557,52 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O1" t="s">
         <v>523</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>524</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>525</v>
       </c>
-      <c r="Q1" t="s">
-        <v>526</v>
-      </c>
       <c r="R1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S1" t="s">
+        <v>527</v>
+      </c>
+      <c r="T1" t="s">
+        <v>932</v>
+      </c>
+      <c r="U1" t="s">
         <v>520</v>
-      </c>
-      <c r="S1" t="s">
-        <v>528</v>
-      </c>
-      <c r="T1" t="s">
-        <v>490</v>
-      </c>
-      <c r="U1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="34" hidden="1">
@@ -3623,40 +3634,40 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M2">
         <v>0.41899999999999998</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="34" hidden="1">
@@ -3688,43 +3699,43 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M3">
         <v>0.20599999999999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="34">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="34" hidden="1">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3750,46 +3761,46 @@
         <v>45754.309224537035</v>
       </c>
       <c r="I4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M4" s="8">
         <v>4.8869999999999996</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="R4" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="68">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="68" hidden="1">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3797,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D5">
         <v>2023</v>
@@ -3815,46 +3826,46 @@
         <v>45754.307071759256</v>
       </c>
       <c r="I5" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M5" s="8">
         <v>1.2490000000000001</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="34">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="34" hidden="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3880,43 +3891,43 @@
         <v>45754.307268518518</v>
       </c>
       <c r="I6" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M6" s="8">
         <v>2.1190000000000002</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="51" hidden="1">
@@ -3948,43 +3959,43 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M7" s="4">
         <v>1303</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="245" customHeight="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="245" hidden="1" customHeight="1">
       <c r="A8" t="s">
         <v>393</v>
       </c>
@@ -4010,43 +4021,43 @@
         <v>45754.321527777778</v>
       </c>
       <c r="I8" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M8" s="8">
         <v>1.7490000000000001</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="260" hidden="1" customHeight="1">
@@ -4078,41 +4089,41 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="34">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="34" hidden="1">
       <c r="A10" t="s">
         <v>362</v>
       </c>
@@ -4138,41 +4149,41 @@
         <v>45754.321018518516</v>
       </c>
       <c r="I10" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="J10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M10" s="8">
         <v>3.1680000000000001</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="34" hidden="1">
@@ -4204,41 +4215,41 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="34">
+    </row>
+    <row r="12" spans="1:21" ht="34" hidden="1">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4264,44 +4275,44 @@
         <v>45754.308136574073</v>
       </c>
       <c r="I12" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M12" s="8">
         <v>2.0350000000000001</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="T12" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="51">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="51" hidden="1">
       <c r="A13" t="s">
         <v>398</v>
       </c>
@@ -4327,43 +4338,43 @@
         <v>45754.321562500001</v>
       </c>
       <c r="I13" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M13" s="8">
         <v>2.4350000000000001</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="R13" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="51" hidden="1">
@@ -4395,40 +4406,40 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="T14" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="51" hidden="1">
@@ -4460,40 +4471,40 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M15">
         <v>0.56299999999999994</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="U15" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="34" hidden="1">
@@ -4525,38 +4536,38 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="68" hidden="1">
@@ -4588,40 +4599,40 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="U17" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="34" hidden="1">
@@ -4653,41 +4664,41 @@
         <v>12</v>
       </c>
       <c r="J18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M18">
         <v>0.30499999999999999</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="34">
+    </row>
+    <row r="19" spans="1:21" ht="34" hidden="1">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -4713,46 +4724,46 @@
         <v>45754.309224537035</v>
       </c>
       <c r="I19" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M19" s="8">
         <v>2.7290000000000001</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="51">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="51" hidden="1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4778,46 +4789,46 @@
         <v>45754.308483796296</v>
       </c>
       <c r="I20" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M20" s="8">
         <v>1.6930000000000001</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="85">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="85" hidden="1">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4843,46 +4854,46 @@
         <v>45754.30872685185</v>
       </c>
       <c r="I21" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K21" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M21" s="8">
         <v>1.62</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="R21" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="51">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="51" hidden="1">
       <c r="A22" t="s">
         <v>405</v>
       </c>
@@ -4908,43 +4919,43 @@
         <v>45754.32167824074</v>
       </c>
       <c r="I22" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M22" s="8">
         <v>1.875</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="34" hidden="1">
@@ -4976,36 +4987,36 @@
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S23" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="68" hidden="1">
@@ -5037,40 +5048,40 @@
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M24">
         <v>0.90500000000000003</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="S24" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="T24" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="34" hidden="1">
@@ -5102,38 +5113,38 @@
         <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K25" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M25">
         <v>0.96</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S25" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="T25" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="U25" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="68" hidden="1">
@@ -5165,40 +5176,40 @@
         <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M26">
         <v>0.71699999999999997</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="S26" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="51" hidden="1">
@@ -5230,38 +5241,38 @@
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M27" s="5">
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R27" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="51" hidden="1">
@@ -5293,41 +5304,41 @@
         <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M28">
         <v>0.96</v>
       </c>
       <c r="N28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="O28" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="T28" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="U28" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="102">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="102" hidden="1">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -5353,46 +5364,46 @@
         <v>45754.310891203706</v>
       </c>
       <c r="I29" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M29" s="8">
         <v>1.62</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="Q29" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R29" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="T29" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="51">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="51" hidden="1">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -5400,7 +5411,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D30">
         <v>2023</v>
@@ -5418,43 +5429,43 @@
         <v>45754.311064814814</v>
       </c>
       <c r="I30" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M30" s="8">
         <v>2.1190000000000002</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q30" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R30" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="51" hidden="1">
@@ -5486,41 +5497,41 @@
         <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M31">
         <v>0.56299999999999994</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="P31" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="68">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="68" hidden="1">
       <c r="A32" t="s">
         <v>361</v>
       </c>
@@ -5546,46 +5557,46 @@
         <v>45754.320798611108</v>
       </c>
       <c r="I32" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M32" s="8">
         <v>1.7310000000000001</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="51">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="51" hidden="1">
       <c r="A33" t="s">
         <v>410</v>
       </c>
@@ -5611,43 +5622,43 @@
         <v>45754.321712962963</v>
       </c>
       <c r="I33" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L33" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M33" s="8">
         <v>2.8809999999999998</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q33" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R33" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="34" hidden="1">
@@ -5679,41 +5690,41 @@
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M34">
         <v>0.97</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="T34" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="51">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="51" hidden="1">
       <c r="A35" t="s">
         <v>416</v>
       </c>
@@ -5739,44 +5750,44 @@
         <v>45754.321840277778</v>
       </c>
       <c r="I35" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M35" s="8">
         <v>1.3029999999999999</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="51">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="51" hidden="1">
       <c r="A36" t="s">
         <v>420</v>
       </c>
@@ -5802,43 +5813,43 @@
         <v>45754.321875000001</v>
       </c>
       <c r="I36" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M36" s="8">
         <v>1.3029999999999999</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="R36" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="51" hidden="1">
@@ -5870,40 +5881,40 @@
         <v>12</v>
       </c>
       <c r="J37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M37" s="5">
         <v>0</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S37" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="T37" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="U37" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="34" hidden="1">
@@ -5935,34 +5946,34 @@
         <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M38" s="4">
         <v>2058</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="51" hidden="1">
@@ -5994,41 +6005,41 @@
         <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M39" s="4">
         <v>1303</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="51">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="51" hidden="1">
       <c r="A40" t="s">
         <v>365</v>
       </c>
@@ -6054,46 +6065,46 @@
         <v>45754.321168981478</v>
       </c>
       <c r="I40" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M40" s="8">
         <v>1.579</v>
       </c>
       <c r="N40" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="R40" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="S40" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="T40" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="34">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="34" hidden="1">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -6119,46 +6130,46 @@
         <v>45754.311793981484</v>
       </c>
       <c r="I41" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="J41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M41" s="8">
         <v>1.7709999999999999</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P41" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q41" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R41" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="68">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="68" hidden="1">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -6184,43 +6195,43 @@
         <v>45754.311967592592</v>
       </c>
       <c r="I42" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M42" s="8">
         <v>1.0940000000000001</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="P42" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R42" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="34" hidden="1">
@@ -6252,38 +6263,38 @@
         <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M43">
         <v>0.79100000000000004</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q43" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="R43" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="U43" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="51" hidden="1">
@@ -6315,38 +6326,38 @@
         <v>12</v>
       </c>
       <c r="J44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="P44" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="Q44" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="R44" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="51" hidden="1">
@@ -6378,36 +6389,36 @@
         <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="34" hidden="1">
@@ -6439,41 +6450,41 @@
         <v>12</v>
       </c>
       <c r="J46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M46">
         <v>0.55000000000000004</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="51">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="51" hidden="1">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -6499,43 +6510,43 @@
         <v>45754.312164351853</v>
       </c>
       <c r="I47" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M47" s="8">
         <v>2.1190000000000002</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="68" hidden="1">
@@ -6567,43 +6578,43 @@
         <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
       <c r="N48" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="P48" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="T48" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="T48" s="2" t="s">
+      <c r="U48" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="U48" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="51">
+    </row>
+    <row r="49" spans="1:21" ht="51" hidden="1">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -6620,55 +6631,55 @@
         <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="H49" s="9">
         <v>45754.309236111112</v>
       </c>
       <c r="I49" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M49" s="8">
         <v>1.1399999999999999</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>856</v>
+        <v>927</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>926</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="68">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="68" hidden="1">
       <c r="A50" t="s">
         <v>434</v>
       </c>
@@ -6694,43 +6705,43 @@
         <v>45754.322060185186</v>
       </c>
       <c r="I50" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L50" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M50" s="8">
         <v>1.1679999999999999</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="51" hidden="1">
@@ -6762,40 +6773,40 @@
         <v>12</v>
       </c>
       <c r="J51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O51" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="U51" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="51" hidden="1">
@@ -6827,34 +6838,34 @@
         <v>12</v>
       </c>
       <c r="J52" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K52" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M52" s="4">
         <v>2027</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="68" hidden="1">
@@ -6886,40 +6897,40 @@
         <v>12</v>
       </c>
       <c r="J53" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
       </c>
       <c r="N53" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q53" s="2" t="s">
+      <c r="R53" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T53" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="R53" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="T53" s="2" t="s">
+      <c r="U53" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="34" hidden="1">
@@ -6951,41 +6962,41 @@
         <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M54" s="4">
         <v>1168</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P54" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="Q54" s="2" t="s">
-        <v>665</v>
-      </c>
       <c r="R54" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="34">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="34" hidden="1">
       <c r="A55" t="s">
         <v>442</v>
       </c>
@@ -7011,43 +7022,43 @@
         <v>45754.322141203702</v>
       </c>
       <c r="I55" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M55" s="8">
         <v>1.1679999999999999</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="85" hidden="1">
@@ -7079,43 +7090,43 @@
         <v>12</v>
       </c>
       <c r="J56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L56" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="P56" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q56" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="R56" s="2" t="s">
+      <c r="S56" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="T56" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="U56" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="T56" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="51">
+    </row>
+    <row r="57" spans="1:21" ht="51" hidden="1">
       <c r="A57" t="s">
         <v>446</v>
       </c>
@@ -7141,43 +7152,43 @@
         <v>45754.322175925925</v>
       </c>
       <c r="I57" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="J57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M57" s="8">
         <v>1.843</v>
       </c>
       <c r="N57" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="O57" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="P57" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q57" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="S57" t="s">
+        <v>535</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="R57" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="S57" t="s">
-        <v>536</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="U57" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="68" hidden="1">
@@ -7209,40 +7220,40 @@
         <v>12</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M58">
         <v>0.76400000000000001</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O58" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="R58" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="R58" s="2" t="s">
+      <c r="S58" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="T58" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="T58" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="U58" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="85" hidden="1">
@@ -7274,41 +7285,41 @@
         <v>12</v>
       </c>
       <c r="J59" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M59">
         <v>0.46</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="R59" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="S59" s="2" t="s">
-        <v>670</v>
-      </c>
       <c r="T59" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="34">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="34" hidden="1">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -7334,43 +7345,43 @@
         <v>45754.3127662037</v>
       </c>
       <c r="I60" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L60" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M60" s="8">
         <v>1.4810000000000001</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="34" hidden="1">
@@ -7402,36 +7413,36 @@
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M61" s="5">
         <v>0</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="R61" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="102" hidden="1">
@@ -7463,40 +7474,40 @@
         <v>12</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
       <c r="N62" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="O62" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="P62" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="T62" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="P62" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="S62" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="T62" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="U62" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="68" hidden="1">
@@ -7528,43 +7539,43 @@
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M63" s="5">
         <v>0</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O63" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="R63" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="R63" s="2" t="s">
+      <c r="S63" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="T63" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="S63" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="T63" s="2" t="s">
+      <c r="U63" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="U63" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="68">
+    </row>
+    <row r="64" spans="1:21" ht="68" hidden="1">
       <c r="A64" t="s">
         <v>201</v>
       </c>
@@ -7590,43 +7601,43 @@
         <v>45754.313750000001</v>
       </c>
       <c r="I64" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M64" s="8">
         <v>1.0389999999999999</v>
       </c>
       <c r="N64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="O64" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="O64" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="P64" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="51" hidden="1">
@@ -7658,40 +7669,40 @@
         <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K65" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L65" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M65" s="5">
         <v>0</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="T65" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="U65" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="102" hidden="1">
@@ -7723,38 +7734,38 @@
         <v>12</v>
       </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L66" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M66">
         <v>0.78</v>
       </c>
       <c r="N66" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="O66" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="O66" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="P66" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="S66" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="T66" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="T66" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="U66" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="85" hidden="1">
@@ -7786,43 +7797,43 @@
         <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M67" s="5">
         <v>0</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O67" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="S67" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="P67" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="S67" s="2" t="s">
+      <c r="T67" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="U67" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="U67" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="51">
+    </row>
+    <row r="68" spans="1:21" ht="51" hidden="1">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -7830,7 +7841,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D68">
         <v>2021</v>
@@ -7848,43 +7859,43 @@
         <v>45754.314120370371</v>
       </c>
       <c r="I68" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J68" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L68" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M68" s="8">
         <v>1.92</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P68" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q68" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q68" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R68" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="68">
@@ -7913,43 +7924,43 @@
         <v>45754.322245370371</v>
       </c>
       <c r="I69" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M69" s="8">
         <v>1.056</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="O69" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="R69" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="P69" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>889</v>
-      </c>
       <c r="S69" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>701</v>
+        <v>928</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="68" hidden="1">
@@ -7981,36 +7992,36 @@
         <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L70" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="U70" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="68" hidden="1">
@@ -8042,38 +8053,38 @@
         <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q71" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="O71" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="R71" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="51" hidden="1">
@@ -8105,43 +8116,43 @@
         <v>12</v>
       </c>
       <c r="J72" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="S72" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="O72" s="2" t="s">
+      <c r="T72" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="P72" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>713</v>
-      </c>
       <c r="U72" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="51">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="51" hidden="1">
       <c r="A73" t="s">
         <v>460</v>
       </c>
@@ -8167,43 +8178,43 @@
         <v>45754.32230324074</v>
       </c>
       <c r="I73" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M73" s="8">
         <v>1.1679999999999999</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P73" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q73" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q73" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R73" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="51" hidden="1">
@@ -8235,40 +8246,40 @@
         <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M74">
         <v>0.68100000000000005</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O74" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="S74" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="P74" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="R74" s="2" t="s">
+      <c r="T74" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="U74" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="51" hidden="1">
@@ -8300,40 +8311,40 @@
         <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M75">
         <v>0.68100000000000005</v>
       </c>
       <c r="N75" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q75" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="O75" s="2" t="s">
+      <c r="R75" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="P75" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q75" s="2" t="s">
+      <c r="S75" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="R75" s="2" t="s">
+      <c r="T75" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="U75" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="34" hidden="1">
@@ -8365,40 +8376,40 @@
         <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M76">
         <v>0.33500000000000002</v>
       </c>
       <c r="N76" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q76" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="O76" s="2" t="s">
+      <c r="R76" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S76" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="P76" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q76" s="2" t="s">
+      <c r="T76" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="R76" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="U76" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="34" hidden="1">
@@ -8430,36 +8441,36 @@
         <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K77" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L77" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="U77" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="68" hidden="1">
@@ -8491,38 +8502,38 @@
         <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M78">
         <v>0.45500000000000002</v>
       </c>
       <c r="N78" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="O78" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="R78" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="68" hidden="1">
@@ -8554,43 +8565,43 @@
         <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K79" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L79" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M79" t="s">
+        <v>734</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="S79" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="N79" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="R79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="S79" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>739</v>
-      </c>
       <c r="U79" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="68">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="68" hidden="1">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -8616,43 +8627,43 @@
         <v>45754.316423611112</v>
       </c>
       <c r="I80" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M80" s="8">
         <v>1.4810000000000001</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="51" hidden="1">
@@ -8684,43 +8695,43 @@
         <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M81" s="4">
         <v>1184</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P81" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q81" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>556</v>
-      </c>
       <c r="R81" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="T81" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="68">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="68" hidden="1">
       <c r="A82" t="s">
         <v>469</v>
       </c>
@@ -8746,46 +8757,46 @@
         <v>45754.322384259256</v>
       </c>
       <c r="I82" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K82" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L82" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M82" s="8">
         <v>2.0419999999999998</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P82" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="U82" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="18">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="34" hidden="1">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -8811,46 +8822,46 @@
         <v>45754.316574074073</v>
       </c>
       <c r="I83" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M83" s="8">
         <v>1.98</v>
       </c>
       <c r="N83" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q83" t="s">
-        <v>620</v>
-      </c>
-      <c r="R83" t="s">
-        <v>832</v>
-      </c>
-      <c r="S83" t="s">
-        <v>930</v>
+        <v>619</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>924</v>
       </c>
       <c r="T83" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="U83" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="51">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="51" hidden="1">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -8876,43 +8887,43 @@
         <v>45754.316724537035</v>
       </c>
       <c r="I84" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K84" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M84" s="8">
         <v>1.6930000000000001</v>
       </c>
       <c r="N84" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="O84" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="O84" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="P84" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q84" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="R84" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="51" hidden="1">
@@ -8944,40 +8955,40 @@
         <v>12</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K85" s="4">
         <v>1620</v>
       </c>
       <c r="L85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M85" t="s">
+        <v>741</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="Q85" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="O85" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="P85" s="2" t="s">
+      <c r="S85" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="Q85" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="R85" s="2" t="s">
+      <c r="T85" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="S85" s="2" t="s">
+      <c r="U85" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="U85" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="34" hidden="1">
@@ -9009,40 +9020,40 @@
         <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K86" t="s">
+        <v>502</v>
+      </c>
+      <c r="L86" t="s">
+        <v>502</v>
+      </c>
+      <c r="M86" t="s">
+        <v>748</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="O86" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L86" t="s">
-        <v>503</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="P86" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q86" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="N86" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="P86" s="2" t="s">
+      <c r="R86" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S86" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="T86" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="U86" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="T86" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="187" hidden="1">
@@ -9074,41 +9085,41 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M87" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="R87" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="Q87" s="2" t="s">
+      <c r="S87" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="R87" s="2" t="s">
+      <c r="T87" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="S87" s="2" t="s">
+      <c r="U87" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="T87" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="U87" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="85">
+    </row>
+    <row r="88" spans="1:21" ht="85" hidden="1">
       <c r="A88" t="s">
         <v>474</v>
       </c>
@@ -9122,7 +9133,7 @@
         <v>2024</v>
       </c>
       <c r="E88" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F88" t="s">
         <v>356</v>
@@ -9134,43 +9145,43 @@
         <v>45754.322442129633</v>
       </c>
       <c r="I88" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="J88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M88" s="8">
         <v>1.1679999999999999</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="R88" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S88" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="S88" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="T88" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="68">
@@ -9199,43 +9210,43 @@
         <v>45754.317939814813</v>
       </c>
       <c r="I89" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M89" s="8">
         <v>1.008</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>866</v>
+        <v>929</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="68" hidden="1">
@@ -9267,43 +9278,43 @@
         <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M90" t="s">
+        <v>762</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="N90" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="O90" s="2" t="s">
+      <c r="S90" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="P90" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="R90" s="2" t="s">
+      <c r="T90" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="S90" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>768</v>
-      </c>
       <c r="U90" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="85">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="85" hidden="1">
       <c r="A91" t="s">
         <v>280</v>
       </c>
@@ -9329,43 +9340,43 @@
         <v>45754.318668981483</v>
       </c>
       <c r="I91" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J91" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M91" s="8">
         <v>1.62</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R91" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="51" hidden="1">
@@ -9397,40 +9408,40 @@
         <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L92" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M92" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="N92" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="S92" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="O92" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q92" s="2" t="s">
+      <c r="T92" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="R92" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S92" s="2" t="s">
+      <c r="U92" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="T92" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="51" hidden="1">
@@ -9462,41 +9473,41 @@
         <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L93" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M93" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="51">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="51" hidden="1">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -9522,43 +9533,43 @@
         <v>45754.322488425925</v>
       </c>
       <c r="I94" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K94" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M94" s="8">
         <v>1.1679999999999999</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="34" hidden="1">
@@ -9590,38 +9601,38 @@
         <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K95" t="s">
+        <v>502</v>
+      </c>
+      <c r="L95" t="s">
+        <v>502</v>
+      </c>
+      <c r="M95" t="s">
+        <v>730</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L95" t="s">
-        <v>503</v>
-      </c>
-      <c r="M95" t="s">
-        <v>732</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>504</v>
-      </c>
       <c r="P95" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="51" hidden="1">
@@ -9653,40 +9664,40 @@
         <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K96" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L96" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M96" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="51" hidden="1">
@@ -9718,38 +9729,38 @@
         <v>12</v>
       </c>
       <c r="J97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K97" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M97" t="s">
+        <v>779</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q97" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="N97" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>783</v>
-      </c>
       <c r="R97" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="51" hidden="1">
@@ -9781,40 +9792,40 @@
         <v>12</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K98" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L98" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M98" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="P98" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="U98" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="T98" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="U98" s="2" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="85">
@@ -9843,46 +9854,46 @@
         <v>45754.319328703707</v>
       </c>
       <c r="I99" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K99" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M99" s="8">
         <v>1.6930000000000001</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="R99" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S99" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="T99" s="2" t="s">
-        <v>876</v>
+        <v>930</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="68">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" ht="68" hidden="1">
       <c r="A100" t="s">
         <v>308</v>
       </c>
@@ -9908,43 +9919,43 @@
         <v>45754.319363425922</v>
       </c>
       <c r="I100" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M100" s="8">
         <v>1.62</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="68" hidden="1">
@@ -9976,40 +9987,40 @@
         <v>12</v>
       </c>
       <c r="J101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K101" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L101" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M101" t="s">
+        <v>787</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="O101" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="P101" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="U101" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="T101" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="U101" s="2" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="85" hidden="1">
@@ -10041,43 +10052,43 @@
         <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K102" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L102" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M102" t="s">
+        <v>791</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="O102" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="P102" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q102" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="O102" s="2" t="s">
+      <c r="R102" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="U102" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="S102" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="T102" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="U102" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="34">
+    </row>
+    <row r="103" spans="1:21" ht="34" hidden="1">
       <c r="A103" t="s">
         <v>322</v>
       </c>
@@ -10103,43 +10114,43 @@
         <v>45754.319456018522</v>
       </c>
       <c r="I103" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K103" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M103" s="8">
         <v>1.1399999999999999</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="119" hidden="1">
@@ -10171,40 +10182,40 @@
         <v>12</v>
       </c>
       <c r="J104" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K104" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L104" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M104" t="s">
+        <v>796</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="O104" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="P104" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q104" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="O104" s="2" t="s">
+      <c r="R104" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="T104" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="P104" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="S104" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="T104" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="U104" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="119" hidden="1">
@@ -10236,40 +10247,40 @@
         <v>12</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K105" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L105" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M105" s="4">
         <v>1094</v>
       </c>
       <c r="N105" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="O105" s="2" t="s">
+      <c r="R105" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S105" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="P105" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q105" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="R105" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S105" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="T105" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="68" hidden="1">
@@ -10301,40 +10312,40 @@
         <v>12</v>
       </c>
       <c r="J106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M106" t="s">
+        <v>805</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="O106" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="P106" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="T106" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="O106" s="2" t="s">
+      <c r="U106" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q106" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="R106" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="S106" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="T106" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="U106" s="2" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="102">
@@ -10363,46 +10374,46 @@
         <v>45754.322592592594</v>
       </c>
       <c r="I107" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K107" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M107" s="8">
         <v>1.1060000000000001</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>881</v>
+        <v>931</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="51">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="51" hidden="1">
       <c r="A108" t="s">
         <v>336</v>
       </c>
@@ -10428,46 +10439,46 @@
         <v>45754.319548611114</v>
       </c>
       <c r="I108" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="J108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K108" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L108" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M108" s="8">
         <v>1.536</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="R108" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T108" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="U108" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="U108" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="68">
+    </row>
+    <row r="109" spans="1:21" ht="68" hidden="1">
       <c r="A109" t="s">
         <v>359</v>
       </c>
@@ -10493,43 +10504,43 @@
         <v>45754.320462962962</v>
       </c>
       <c r="I109" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K109" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M109" s="8">
         <v>2.9060000000000001</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="P109" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="Q109" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="R109" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="T109" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="116" spans="18:18" ht="17">
@@ -10538,6 +10549,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
